--- a/Product Backlog/AK_Product-backlog-template.xlsx
+++ b/Product Backlog/AK_Product-backlog-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apurvakedar/Downloads/snakegame_v1/Product Backlog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B47D188-0AD5-1645-A00D-205F7944E113}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{754EC432-0546-0142-AF73-38C91FE684BC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{49C32462-D2B8-4175-AE19-832EFB3F644D}"/>
   </bookViews>
@@ -136,13 +136,6 @@
     <t>Apurva Kedar 23796845</t>
   </si>
   <si>
-    <t> the game board looks like :
-a) the background color is black
-b) the snake color is green
-c) the apple color is red
-d) the default board size is 400px by 400px</t>
-  </si>
-  <si>
     <t>Show the snake. The snake head looks like a pre loaded image and snake can move in upward, downward, left, right directions based on user inputs of respective arrow keys</t>
   </si>
   <si>
@@ -153,6 +146,13 @@
   </si>
   <si>
     <t>The game is over if Snake Body hits the boundaries of the board and a message is displayed to the player.</t>
+  </si>
+  <si>
+    <t> The game board looks like :
+a) The background color is black
+b) The snake color is green
+c) The apple color is red
+d) The default board size is 400px by 400px</t>
   </si>
 </sst>
 </file>
@@ -650,7 +650,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -738,7 +738,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -746,7 +746,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -754,7 +754,7 @@
         <v>4</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -762,7 +762,7 @@
         <v>5</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -770,7 +770,7 @@
         <v>6</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">

--- a/Product Backlog/AK_Product-backlog-template.xlsx
+++ b/Product Backlog/AK_Product-backlog-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apurvakedar/Downloads/snakegame_v1/Product Backlog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{754EC432-0546-0142-AF73-38C91FE684BC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A658EFB-7A37-F343-9DE5-BF76E7D7C788}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{49C32462-D2B8-4175-AE19-832EFB3F644D}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
   <si>
     <t>Week 9</t>
   </si>
@@ -134,9 +134,6 @@
   </si>
   <si>
     <t>Apurva Kedar 23796845</t>
-  </si>
-  <si>
-    <t>Show the snake. The snake head looks like a pre loaded image and snake can move in upward, downward, left, right directions based on user inputs of respective arrow keys</t>
   </si>
   <si>
     <t>The board generates apples at random locations.</t>
@@ -152,7 +149,26 @@
 a) The background color is black
 b) The snake color is green
 c) The apple color is red
-d) The default board size is 400px by 400px</t>
+d) The default board size is 900px by 900px</t>
+  </si>
+  <si>
+    <t>Week 2</t>
+  </si>
+  <si>
+    <t>Week 3</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Print snake and prey as per given interface.
+a) Draw the Prey
+b) Draw the Snake
+c) Implement Layout Managers to show GUI as given in the assessment.
+d) Open Login Form on game start and show the Game Interface only on successful Login.</t>
+  </si>
+  <si>
+    <t>Week 4</t>
   </si>
 </sst>
 </file>
@@ -647,10 +663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1F2A6E6-5A3B-4CAD-BC9F-023E52339F74}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -659,11 +675,11 @@
     <col min="2" max="2" width="18" style="3" customWidth="1"/>
     <col min="3" max="3" width="6.33203125" style="6" customWidth="1"/>
     <col min="4" max="4" width="78.1640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="16.5" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="9.1640625" style="3"/>
+    <col min="5" max="7" width="7" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.1640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
         <v>8</v>
       </c>
@@ -673,7 +689,7 @@
       <c r="C1" s="31"/>
       <c r="D1" s="27"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
         <v>9</v>
       </c>
@@ -683,7 +699,7 @@
       <c r="C2" s="31"/>
       <c r="D2" s="27"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
         <v>10</v>
       </c>
@@ -693,7 +709,7 @@
       <c r="C3" s="31"/>
       <c r="D3" s="27"/>
     </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
         <v>32</v>
       </c>
@@ -703,19 +719,19 @@
       <c r="C4" s="32"/>
       <c r="D4" s="27"/>
     </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
       <c r="D5" s="16"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="25"/>
       <c r="B6" s="26" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="24" t="s">
@@ -724,64 +740,82 @@
       <c r="D7" s="34" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E7" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="34" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="C8" s="7">
         <v>1</v>
       </c>
       <c r="D8" s="35" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+      <c r="E8" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="C9" s="7">
         <v>2</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="C10" s="7">
         <v>3</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="C11" s="7">
         <v>4</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="C12" s="7">
         <v>5</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="C13" s="7">
         <v>6</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C14" s="7"/>
       <c r="D14" s="17"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C15" s="7"/>
       <c r="D15" s="17"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C16" s="7"/>
       <c r="D16" s="17"/>
     </row>

--- a/Product Backlog/AK_Product-backlog-template.xlsx
+++ b/Product Backlog/AK_Product-backlog-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apurvakedar/Downloads/snakegame_v1/Product Backlog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A658EFB-7A37-F343-9DE5-BF76E7D7C788}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{543D46CB-A527-8C43-8025-AC291F0A00B6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{49C32462-D2B8-4175-AE19-832EFB3F644D}"/>
   </bookViews>
@@ -21,12 +21,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="46">
   <si>
     <t>Week 9</t>
   </si>
@@ -169,6 +178,9 @@
   </si>
   <si>
     <t>Week 4</t>
+  </si>
+  <si>
+    <t>Week 5</t>
   </si>
 </sst>
 </file>
@@ -663,10 +675,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1F2A6E6-5A3B-4CAD-BC9F-023E52339F74}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -679,7 +691,7 @@
     <col min="8" max="16384" width="9.1640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
         <v>8</v>
       </c>
@@ -689,7 +701,7 @@
       <c r="C1" s="31"/>
       <c r="D1" s="27"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
         <v>9</v>
       </c>
@@ -699,7 +711,7 @@
       <c r="C2" s="31"/>
       <c r="D2" s="27"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
         <v>10</v>
       </c>
@@ -709,7 +721,7 @@
       <c r="C3" s="31"/>
       <c r="D3" s="27"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
         <v>32</v>
       </c>
@@ -719,19 +731,19 @@
       <c r="C4" s="32"/>
       <c r="D4" s="27"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
       <c r="D5" s="16"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="25"/>
       <c r="B6" s="26" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="24" t="s">
@@ -749,8 +761,14 @@
       <c r="G7" s="34" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H7" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" s="34" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="C8" s="7">
         <v>1</v>
       </c>
@@ -761,7 +779,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="C9" s="7">
         <v>2</v>
       </c>
@@ -772,7 +790,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="C10" s="7">
         <v>3</v>
       </c>
@@ -783,39 +801,48 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="C11" s="7">
         <v>4</v>
       </c>
       <c r="D11" s="33" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="G11" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="C12" s="7">
         <v>5</v>
       </c>
       <c r="D12" s="33" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="H12" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="C13" s="7">
         <v>6</v>
       </c>
       <c r="D13" s="33" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I13" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C14" s="7"/>
       <c r="D14" s="17"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C15" s="7"/>
       <c r="D15" s="17"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C16" s="7"/>
       <c r="D16" s="17"/>
     </row>
